--- a/Update BMP Target_Delete_v1.xlsx
+++ b/Update BMP Target_Delete_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Code/GitHub/BMPStaging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E40B8BA-A1E0-3C4C-AB7B-DE5F52F35B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952543CB-8699-854B-8071-0979D2C70447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="-33320" windowWidth="35680" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="-38640" windowWidth="36760" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateTarget_Delete" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>File</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>../BMPpdfs/02000_Willamette_DFP_DRR.pdf</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -701,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -712,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -817,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -850,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -861,7 +864,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -872,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -894,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +966,7 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,7 +988,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">

--- a/Update BMP Target_Delete_v1.xlsx
+++ b/Update BMP Target_Delete_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Code/GitHub/BMPStaging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952543CB-8699-854B-8071-0979D2C70447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEAA76D-C7BC-5C40-81C7-0C822BA1617C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10860" yWindow="-38640" windowWidth="36760" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
   <si>
     <t>File</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>../BMPpdfs/00887_to_00910_KSUInformationSigns.pdf</t>
-  </si>
-  <si>
-    <t>Delete</t>
   </si>
   <si>
     <t>/Users/Tim/Code/Github/BMPStaging/AgBMPs/IrrigationManagement.html</t>
@@ -577,7 +574,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D37" sqref="D37:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,432 +618,432 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
